--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雅申特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>9:00-9:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -462,19 +462,19 @@
         <v>40744</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,19 +482,19 @@
         <v>40756</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凯越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,22 @@
   </si>
   <si>
     <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:20PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A25032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武警大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -462,10 +474,10 @@
         <v>40744</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -482,10 +494,10 @@
         <v>40756</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -495,6 +507,46 @@
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>40759</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>40760</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,57 @@
   </si>
   <si>
     <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:45-9:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20-9:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon,Kaine</t>
+  </si>
+  <si>
+    <t>8:55-9:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,11 +184,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,22 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>40744</v>
       </c>
@@ -489,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>40756</v>
       </c>
@@ -509,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>40759</v>
       </c>
@@ -529,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>40760</v>
       </c>
@@ -546,7 +604,110 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40778</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>40778</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40779</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>40779</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>40780</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,38 @@
   </si>
   <si>
     <t>+油 ￥100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-22:30 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+高速费 ￥2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20-12:30 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine,王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A909F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine,Jack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -504,7 +536,7 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -708,6 +740,89 @@
       </c>
       <c r="F10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40780</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>40785</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>40785</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,34 @@
   </si>
   <si>
     <t>Sam,Simon,Kaine,Jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:50-9:44 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到别人的车 ￥200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:30 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-13:40 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-13:10 PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,7 +564,7 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -698,6 +726,9 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -823,6 +854,106 @@
       </c>
       <c r="F14" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>40801</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40801</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,70 @@
   </si>
   <si>
     <t>12:00-13:10 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-21:40 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世纪书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝,蔡亚非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买火车票-华润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王季秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:10-9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -562,8 +626,9 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -896,7 +961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>40802</v>
       </c>
@@ -916,7 +981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>40802</v>
       </c>
@@ -936,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>40802</v>
       </c>
@@ -954,6 +1019,146 @@
       </c>
       <c r="F19" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>40803</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>40803</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>40804</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>40804</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>40805</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>40805</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaine,simon,沈家亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1159,6 +1167,66 @@
       </c>
       <c r="G26" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>40823</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>40823</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>40823</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1227,6 +1227,66 @@
       </c>
       <c r="F29" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18180" windowHeight="9900"/>
+    <workbookView xWindow="7590" yWindow="225" windowWidth="18180" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="76">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>showa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,58 @@
   </si>
   <si>
     <t>kaine,simon,沈家亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:50-9:20 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东英羽毛球馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merring,angel,sue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑村红花岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:05-9:40 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam,Simon,Kaine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,15 +671,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F32"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -1106,7 +1157,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1157,16 +1208,16 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1186,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1206,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1226,24 +1277,24 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>40824</v>
+        <v>40823</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
@@ -1254,16 +1305,16 @@
         <v>40824</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
@@ -1274,19 +1325,342 @@
         <v>40824</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>40826</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>40826</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>40826</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>40826</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>40827</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>40827</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>40828</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40828</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>40828</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>40829</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>40829</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>40829</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>40829</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="103">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,114 @@
   </si>
   <si>
     <t>Sam,Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:40-13:50 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琶州大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆,宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-18:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:35-18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清溪湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金新娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:50-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00-8:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银屏山公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清溪路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富佳商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-13:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:30-09:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.6Km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mileage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -688,10 +796,11 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +819,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>40744</v>
       </c>
@@ -731,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>40756</v>
       </c>
@@ -751,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>40759</v>
       </c>
@@ -771,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>40760</v>
       </c>
@@ -791,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>40778</v>
       </c>
@@ -811,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>40778</v>
       </c>
@@ -831,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>40779</v>
       </c>
@@ -850,11 +962,11 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>40779</v>
       </c>
@@ -873,11 +985,11 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>40780</v>
       </c>
@@ -897,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>40780</v>
       </c>
@@ -916,11 +1028,11 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>40785</v>
       </c>
@@ -940,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>40785</v>
       </c>
@@ -960,7 +1072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>40786</v>
       </c>
@@ -980,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>40801</v>
       </c>
@@ -1000,7 +1112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>40801</v>
       </c>
@@ -1020,7 +1132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>40802</v>
       </c>
@@ -1040,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>40802</v>
       </c>
@@ -1060,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>40802</v>
       </c>
@@ -1080,7 +1192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>40802</v>
       </c>
@@ -1096,11 +1208,11 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>40803</v>
       </c>
@@ -1120,7 +1232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>40803</v>
       </c>
@@ -1140,7 +1252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>40804</v>
       </c>
@@ -1160,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>40804</v>
       </c>
@@ -1180,7 +1292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>40805</v>
       </c>
@@ -1197,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>40805</v>
       </c>
@@ -1216,11 +1328,11 @@
       <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>40823</v>
       </c>
@@ -1240,7 +1352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>40823</v>
       </c>
@@ -1260,7 +1372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>40823</v>
       </c>
@@ -1280,7 +1392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>40823</v>
       </c>
@@ -1300,7 +1412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>40824</v>
       </c>
@@ -1320,7 +1432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>40824</v>
       </c>
@@ -1340,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>40824</v>
       </c>
@@ -1360,7 +1472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>40824</v>
       </c>
@@ -1380,7 +1492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>40826</v>
       </c>
@@ -1400,7 +1512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>40826</v>
       </c>
@@ -1420,7 +1532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>40826</v>
       </c>
@@ -1440,7 +1552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>40826</v>
       </c>
@@ -1460,7 +1572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>40827</v>
       </c>
@@ -1480,7 +1592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>40827</v>
       </c>
@@ -1499,11 +1611,11 @@
       <c r="F40" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>40828</v>
       </c>
@@ -1523,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40828</v>
       </c>
@@ -1543,7 +1655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>40828</v>
       </c>
@@ -1563,7 +1675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>40829</v>
       </c>
@@ -1583,7 +1695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>40829</v>
       </c>
@@ -1603,7 +1715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>40829</v>
       </c>
@@ -1623,7 +1735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>40829</v>
       </c>
@@ -1643,7 +1755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>40830</v>
       </c>
@@ -1661,6 +1773,300 @@
       </c>
       <c r="F48" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>40831</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>40831</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>40831</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>40831</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>40833</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="116">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,57 @@
   </si>
   <si>
     <t>Mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+  </si>
+  <si>
+    <t>17:40-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00-08:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润家商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon,Kaine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2067,6 +2118,305 @@
       </c>
       <c r="G63" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>40833</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>40840</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>40840</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="116">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2417,6 +2417,91 @@
       </c>
       <c r="H79" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>40843</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,86 @@
   </si>
   <si>
     <t>Simon,Kaine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意生活区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00:00-22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:40-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:40-8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河公园北门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:05-8:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:40-8:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:40-13:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:20-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30:00-8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,13 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2439,7 +2519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>40842</v>
       </c>
@@ -2459,7 +2539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>40842</v>
       </c>
@@ -2479,7 +2559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>40842</v>
       </c>
@@ -2499,9 +2579,354 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>40843</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>40843</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>40843</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>40843</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>40851</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>40851</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>40854</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,26 @@
   </si>
   <si>
     <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:50:40-13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-8:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2927,6 +2947,125 @@
       </c>
       <c r="E102" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>40856</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>40856</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>40857</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>40857</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>40858</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>40858</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>40861</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="157">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,69 @@
   </si>
   <si>
     <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-8:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:40-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:25-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修车店(学院天桥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actavis</t>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,13 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3066,6 +3129,227 @@
       </c>
       <c r="E109" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>40861</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>40863</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>40863</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>40863</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>40864</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>40864</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>40865</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>40865</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>40868</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>40868</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>40868</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>40869</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>40869</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="179">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:30-9:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actavis</t>
   </si>
   <si>
@@ -639,7 +635,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17:30-20:00</t>
+    <t>13:00-13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英东羽毛球馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-8:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副驾座把手被拉断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:25-12:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-9:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:40-9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8:50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9:20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,6 +756,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -686,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +809,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,21 +1111,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
@@ -1015,7 +1133,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1038,7 +1156,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>40744</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1058,7 +1176,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>40756</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1078,7 +1196,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>40759</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1098,7 +1216,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>40760</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1118,7 +1236,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>40778</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1138,7 +1256,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>40778</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1158,7 +1276,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>40779</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1181,7 +1299,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>40779</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1204,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>40780</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1224,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>40780</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1247,7 +1365,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>40785</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1267,7 +1385,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>40785</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1287,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>40786</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1307,7 +1425,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>40801</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1327,7 +1445,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>40801</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1347,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>40802</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1367,7 +1485,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>40802</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1387,7 +1505,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>40802</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1407,7 +1525,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>40802</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1427,7 +1545,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>40803</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1447,7 +1565,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>40803</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1467,7 +1585,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>40804</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1487,7 +1605,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>40804</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1507,7 +1625,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>40805</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1524,7 +1642,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>40805</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1547,7 +1665,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>40823</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1567,7 +1685,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>40823</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1587,7 +1705,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>40823</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1607,7 +1725,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>40823</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1627,7 +1745,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>40824</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1647,7 +1765,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>40824</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1667,7 +1785,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>40824</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1687,7 +1805,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>40824</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1707,7 +1825,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>40826</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1727,7 +1845,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>40826</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1747,7 +1865,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>40826</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1767,7 +1885,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>40826</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1787,7 +1905,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>40827</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1807,7 +1925,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>40827</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1830,7 +1948,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>40828</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1850,7 +1968,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>40828</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1870,7 +1988,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>40828</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1890,7 +2008,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>40829</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1910,7 +2028,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>40829</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1930,7 +2048,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>40829</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1950,7 +2068,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>40829</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1970,7 +2088,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>40830</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1990,7 +2108,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>40830</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2010,7 +2128,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>40830</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2030,7 +2148,7 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>40830</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2047,7 +2165,7 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>40830</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2067,7 +2185,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>40830</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2084,7 +2202,7 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>40831</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2104,7 +2222,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>40831</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2124,7 +2242,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>40831</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2144,7 +2262,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>40831</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2164,7 +2282,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>40832</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2184,7 +2302,7 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>40832</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2204,7 +2322,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>40832</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2224,7 +2342,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>40832</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2244,7 +2362,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>40832</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2264,7 +2382,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>40833</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2284,7 +2402,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>40833</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2304,7 +2422,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>40834</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2324,7 +2442,7 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>40834</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2341,7 +2459,7 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>40834</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2358,7 +2476,7 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>40834</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2378,7 +2496,7 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>40837</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2398,7 +2516,7 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="1">
+      <c r="A70" s="4">
         <v>40837</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2418,7 +2536,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="1">
+      <c r="A71" s="4">
         <v>40837</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2438,7 +2556,7 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1">
+      <c r="A72" s="4">
         <v>40837</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2458,7 +2576,7 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1">
+      <c r="A73" s="4">
         <v>40837</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2475,7 +2593,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="1">
+      <c r="A74" s="4">
         <v>40839</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2492,7 +2610,7 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1">
+      <c r="A75" s="4">
         <v>40839</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2509,7 +2627,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1">
+      <c r="A76" s="4">
         <v>40839</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2526,7 +2644,7 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1">
+      <c r="A77" s="4">
         <v>40839</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2543,7 +2661,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1">
+      <c r="A78" s="4">
         <v>40840</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2560,7 +2678,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1">
+      <c r="A79" s="4">
         <v>40840</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2583,7 +2701,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1">
+      <c r="A80" s="4">
         <v>40842</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2603,7 +2721,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>40842</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2623,7 +2741,7 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="1">
+      <c r="A82" s="4">
         <v>40842</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2643,7 +2761,7 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1">
+      <c r="A83" s="4">
         <v>40842</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2663,7 +2781,7 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1">
+      <c r="A84" s="4">
         <v>40843</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2683,7 +2801,7 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="1">
+      <c r="A85" s="4">
         <v>40843</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2703,7 +2821,7 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="1">
+      <c r="A86" s="4">
         <v>40843</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2723,7 +2841,7 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="1">
+      <c r="A87" s="4">
         <v>40843</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2743,7 +2861,7 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="1">
+      <c r="A88" s="4">
         <v>40844</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2763,7 +2881,7 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1">
+      <c r="A89" s="4">
         <v>40844</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2780,7 +2898,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="1">
+      <c r="A90" s="4">
         <v>40844</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2800,7 +2918,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="1">
+      <c r="A91" s="4">
         <v>40844</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -2820,7 +2938,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="1">
+      <c r="A92" s="4">
         <v>40844</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2840,7 +2958,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="1">
+      <c r="A93" s="4">
         <v>40844</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2860,7 +2978,7 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="1">
+      <c r="A94" s="4">
         <v>40844</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2877,7 +2995,7 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="1">
+      <c r="A95" s="4">
         <v>40844</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -2894,7 +3012,7 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="1">
+      <c r="A96" s="4">
         <v>40847</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -2910,8 +3028,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
+    <row r="97" spans="1:8">
+      <c r="A97" s="4">
         <v>40851</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2927,8 +3045,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
+    <row r="98" spans="1:8">
+      <c r="A98" s="4">
         <v>40851</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2943,9 +3061,12 @@
       <c r="E98" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
+      <c r="H98" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4">
         <v>40853</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -2961,8 +3082,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
+    <row r="100" spans="1:8">
+      <c r="A100" s="4">
         <v>40853</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -2978,8 +3099,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
+    <row r="101" spans="1:8">
+      <c r="A101" s="4">
         <v>40853</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -2995,8 +3116,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
+    <row r="102" spans="1:8">
+      <c r="A102" s="4">
         <v>40854</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3012,8 +3133,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
+    <row r="103" spans="1:8">
+      <c r="A103" s="4">
         <v>40856</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3029,8 +3150,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
+    <row r="104" spans="1:8">
+      <c r="A104" s="4">
         <v>40856</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3046,8 +3167,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
+    <row r="105" spans="1:8">
+      <c r="A105" s="4">
         <v>40857</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3063,8 +3184,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
+    <row r="106" spans="1:8">
+      <c r="A106" s="4">
         <v>40857</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3079,9 +3200,12 @@
       <c r="E106" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
+      <c r="H106" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4">
         <v>40858</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3097,8 +3221,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8">
+      <c r="A108" s="4">
         <v>40858</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3114,8 +3238,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
+    <row r="109" spans="1:8">
+      <c r="A109" s="4">
         <v>40861</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3131,8 +3255,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
+    <row r="110" spans="1:8">
+      <c r="A110" s="4">
         <v>40861</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3148,8 +3272,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
+    <row r="111" spans="1:8">
+      <c r="A111" s="4">
         <v>40863</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3165,8 +3289,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
+    <row r="112" spans="1:8">
+      <c r="A112" s="4">
         <v>40863</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3182,8 +3306,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
+    <row r="113" spans="1:8">
+      <c r="A113" s="4">
         <v>40863</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3199,8 +3323,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
+    <row r="114" spans="1:8">
+      <c r="A114" s="4">
         <v>40864</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3216,8 +3340,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
+    <row r="115" spans="1:8">
+      <c r="A115" s="4">
         <v>40864</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3232,9 +3356,12 @@
       <c r="E115" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
+      <c r="H115" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="4">
         <v>40865</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3250,8 +3377,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
+    <row r="117" spans="1:8">
+      <c r="A117" s="4">
         <v>40865</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3267,8 +3394,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
+    <row r="118" spans="1:8">
+      <c r="A118" s="4">
         <v>40868</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3284,8 +3411,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
+    <row r="119" spans="1:8">
+      <c r="A119" s="4">
         <v>40868</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3301,8 +3428,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
+    <row r="120" spans="1:8">
+      <c r="A120" s="4">
         <v>40868</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3318,25 +3445,25 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
+    <row r="121" spans="1:8">
+      <c r="A121" s="4">
         <v>40869</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
         <v>153</v>
       </c>
-      <c r="C121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="4">
         <v>40869</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3346,15 +3473,328 @@
         <v>104</v>
       </c>
       <c r="D122" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" t="s">
         <v>154</v>
       </c>
-      <c r="E122" t="s">
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="4">
+        <v>40871</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="C123" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="4">
+        <v>40871</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" t="s">
+        <v>104</v>
+      </c>
+      <c r="D124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="4">
+        <v>40871</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="4">
+        <v>40876</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" t="s">
+        <v>104</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="4">
+        <v>40876</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="4">
+        <v>40877</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="4">
+        <v>40877</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="4">
+        <v>40879</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+      <c r="H130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="4">
+        <v>40882</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="4">
+        <v>40882</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="4">
+        <v>40882</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" t="s">
+        <v>104</v>
+      </c>
+      <c r="D133" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="4">
+        <v>40884</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>104</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="4">
+        <v>40884</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" t="s">
+        <v>104</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="4">
+        <v>40885</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C136" t="s">
+        <v>104</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="4">
+        <v>40885</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="4">
+        <v>40887</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="4">
+        <v>40887</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" t="s">
+        <v>169</v>
+      </c>
+      <c r="E139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="4">
+        <v>40888</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="186">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +749,34 @@
   </si>
   <si>
     <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车原子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗岗交警队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥10/办违章手续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,13 +1139,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomRight" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3789,6 +3817,43 @@
       </c>
       <c r="E140" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="4">
+        <v>40914</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" t="s">
+        <v>104</v>
+      </c>
+      <c r="D141" t="s">
+        <v>180</v>
+      </c>
+      <c r="E141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="4">
+        <v>40941</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" t="s">
+        <v>184</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="200">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,62 @@
   </si>
   <si>
     <t>+油 ￥10/办违章手续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-8:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧辟(东区)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H143" sqref="H143"/>
+      <selection pane="bottomRight" activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1155,12 +1211,13 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1177,13 +1234,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>40744</v>
       </c>
@@ -1199,11 +1262,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>40756</v>
       </c>
@@ -1219,11 +1282,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>40759</v>
       </c>
@@ -1239,11 +1302,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>40760</v>
       </c>
@@ -1259,11 +1322,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>40778</v>
       </c>
@@ -1279,11 +1342,11 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>40778</v>
       </c>
@@ -1299,11 +1362,11 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>40779</v>
       </c>
@@ -1319,14 +1382,14 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>40779</v>
       </c>
@@ -1342,14 +1405,14 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>40780</v>
       </c>
@@ -1365,11 +1428,11 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>40780</v>
       </c>
@@ -1385,14 +1448,14 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>40785</v>
       </c>
@@ -1408,11 +1471,11 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>40785</v>
       </c>
@@ -1428,11 +1491,11 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>40786</v>
       </c>
@@ -1448,11 +1511,11 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>40801</v>
       </c>
@@ -1468,11 +1531,11 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>40801</v>
       </c>
@@ -1488,11 +1551,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>40802</v>
       </c>
@@ -1508,11 +1571,11 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>40802</v>
       </c>
@@ -1528,11 +1591,11 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>40802</v>
       </c>
@@ -1548,11 +1611,11 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>40802</v>
       </c>
@@ -1568,11 +1631,11 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>40803</v>
       </c>
@@ -1588,11 +1651,11 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>40803</v>
       </c>
@@ -1608,11 +1671,11 @@
       <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>40804</v>
       </c>
@@ -1628,11 +1691,11 @@
       <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>40804</v>
       </c>
@@ -1648,11 +1711,11 @@
       <c r="E24" t="s">
         <v>53</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>40805</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>40805</v>
       </c>
@@ -1685,14 +1748,14 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>40823</v>
       </c>
@@ -1708,11 +1771,11 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>40823</v>
       </c>
@@ -1728,11 +1791,11 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>40823</v>
       </c>
@@ -1748,11 +1811,11 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>40823</v>
       </c>
@@ -1768,11 +1831,11 @@
       <c r="E30" t="s">
         <v>19</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>40824</v>
       </c>
@@ -1788,11 +1851,11 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>40824</v>
       </c>
@@ -1808,11 +1871,11 @@
       <c r="E32" t="s">
         <v>43</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>40824</v>
       </c>
@@ -1828,11 +1891,11 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>40824</v>
       </c>
@@ -1848,11 +1911,11 @@
       <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>40826</v>
       </c>
@@ -1868,11 +1931,11 @@
       <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>40826</v>
       </c>
@@ -1888,11 +1951,11 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>40826</v>
       </c>
@@ -1908,11 +1971,11 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>40826</v>
       </c>
@@ -1928,11 +1991,11 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>40827</v>
       </c>
@@ -1948,11 +2011,11 @@
       <c r="E39" t="s">
         <v>5</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>40827</v>
       </c>
@@ -1968,14 +2031,14 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>40828</v>
       </c>
@@ -1991,11 +2054,11 @@
       <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>40828</v>
       </c>
@@ -2011,11 +2074,11 @@
       <c r="E42" t="s">
         <v>69</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>40828</v>
       </c>
@@ -2031,11 +2094,11 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>40829</v>
       </c>
@@ -2051,11 +2114,11 @@
       <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>40829</v>
       </c>
@@ -2071,11 +2134,11 @@
       <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>40829</v>
       </c>
@@ -2091,11 +2154,11 @@
       <c r="E46" t="s">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>40829</v>
       </c>
@@ -2111,11 +2174,11 @@
       <c r="E47" t="s">
         <v>73</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>40830</v>
       </c>
@@ -2131,11 +2194,11 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>40830</v>
       </c>
@@ -2151,11 +2214,11 @@
       <c r="E49" t="s">
         <v>43</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>40830</v>
       </c>
@@ -2171,11 +2234,11 @@
       <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>40830</v>
       </c>
@@ -2192,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>40830</v>
       </c>
@@ -2208,11 +2271,11 @@
       <c r="E52" t="s">
         <v>79</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>40830</v>
       </c>
@@ -2229,7 +2292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>40831</v>
       </c>
@@ -2245,11 +2308,11 @@
       <c r="E54" t="s">
         <v>84</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>40831</v>
       </c>
@@ -2265,11 +2328,11 @@
       <c r="E55" t="s">
         <v>88</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>40831</v>
       </c>
@@ -2285,11 +2348,11 @@
       <c r="E56" t="s">
         <v>89</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>40831</v>
       </c>
@@ -2305,11 +2368,11 @@
       <c r="E57" t="s">
         <v>83</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>40832</v>
       </c>
@@ -2325,11 +2388,11 @@
       <c r="E58" t="s">
         <v>93</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>40832</v>
       </c>
@@ -2345,11 +2408,11 @@
       <c r="E59" t="s">
         <v>94</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>40832</v>
       </c>
@@ -2365,11 +2428,11 @@
       <c r="E60" t="s">
         <v>95</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>40832</v>
       </c>
@@ -2385,11 +2448,11 @@
       <c r="E61" t="s">
         <v>50</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>40832</v>
       </c>
@@ -2405,11 +2468,11 @@
       <c r="E62" t="s">
         <v>83</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>40833</v>
       </c>
@@ -2425,11 +2488,11 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>40833</v>
       </c>
@@ -2445,11 +2508,11 @@
       <c r="E64" t="s">
         <v>19</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>40834</v>
       </c>
@@ -2465,11 +2528,11 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>40834</v>
       </c>
@@ -2486,7 +2549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>40834</v>
       </c>
@@ -2503,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>40834</v>
       </c>
@@ -2519,11 +2582,11 @@
       <c r="E68" t="s">
         <v>19</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>40837</v>
       </c>
@@ -2539,11 +2602,11 @@
       <c r="E69" t="s">
         <v>5</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>40837</v>
       </c>
@@ -2559,11 +2622,11 @@
       <c r="E70" t="s">
         <v>43</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>40837</v>
       </c>
@@ -2579,11 +2642,11 @@
       <c r="E71" t="s">
         <v>5</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>40837</v>
       </c>
@@ -2599,11 +2662,11 @@
       <c r="E72" t="s">
         <v>106</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>40837</v>
       </c>
@@ -2620,7 +2683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>40839</v>
       </c>
@@ -2637,7 +2700,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>40839</v>
       </c>
@@ -2654,7 +2717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>40839</v>
       </c>
@@ -2671,7 +2734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <v>40839</v>
       </c>
@@ -2688,7 +2751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <v>40840</v>
       </c>
@@ -2705,7 +2768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <v>40840</v>
       </c>
@@ -2721,14 +2784,14 @@
       <c r="E79" t="s">
         <v>19</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <v>40842</v>
       </c>
@@ -2744,11 +2807,11 @@
       <c r="E80" t="s">
         <v>17</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <v>40842</v>
       </c>
@@ -2764,11 +2827,11 @@
       <c r="E81" t="s">
         <v>43</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <v>40842</v>
       </c>
@@ -2784,11 +2847,11 @@
       <c r="E82" t="s">
         <v>5</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <v>40842</v>
       </c>
@@ -2804,11 +2867,11 @@
       <c r="E83" t="s">
         <v>19</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <v>40843</v>
       </c>
@@ -2824,11 +2887,11 @@
       <c r="E84" t="s">
         <v>17</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <v>40843</v>
       </c>
@@ -2844,11 +2907,11 @@
       <c r="E85" t="s">
         <v>43</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <v>40843</v>
       </c>
@@ -2864,11 +2927,11 @@
       <c r="E86" t="s">
         <v>5</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <v>40843</v>
       </c>
@@ -2884,11 +2947,11 @@
       <c r="E87" t="s">
         <v>19</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <v>40844</v>
       </c>
@@ -2904,11 +2967,11 @@
       <c r="E88" t="s">
         <v>125</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <v>40844</v>
       </c>
@@ -2925,7 +2988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <v>40844</v>
       </c>
@@ -2941,11 +3004,11 @@
       <c r="E90" t="s">
         <v>17</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <v>40844</v>
       </c>
@@ -2961,11 +3024,11 @@
       <c r="E91" t="s">
         <v>43</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <v>40844</v>
       </c>
@@ -2981,11 +3044,11 @@
       <c r="E92" t="s">
         <v>5</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <v>40844</v>
       </c>
@@ -3001,11 +3064,11 @@
       <c r="E93" t="s">
         <v>117</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>40844</v>
       </c>
@@ -3022,7 +3085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>40844</v>
       </c>
@@ -3039,7 +3102,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>40847</v>
       </c>
@@ -3056,7 +3119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>40851</v>
       </c>
@@ -3073,7 +3136,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <v>40851</v>
       </c>
@@ -3089,11 +3152,11 @@
       <c r="E98" t="s">
         <v>130</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>40853</v>
       </c>
@@ -3110,7 +3173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>40853</v>
       </c>
@@ -3127,7 +3190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>40853</v>
       </c>
@@ -3144,7 +3207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <v>40854</v>
       </c>
@@ -3161,7 +3224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <v>40856</v>
       </c>
@@ -3178,7 +3241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <v>40856</v>
       </c>
@@ -3195,7 +3258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>40857</v>
       </c>
@@ -3212,7 +3275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:10">
       <c r="A106" s="4">
         <v>40857</v>
       </c>
@@ -3228,11 +3291,11 @@
       <c r="E106" t="s">
         <v>19</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:10">
       <c r="A107" s="4">
         <v>40858</v>
       </c>
@@ -3249,7 +3312,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:10">
       <c r="A108" s="4">
         <v>40858</v>
       </c>
@@ -3266,7 +3329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:10">
       <c r="A109" s="4">
         <v>40861</v>
       </c>
@@ -3283,7 +3346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:10">
       <c r="A110" s="4">
         <v>40861</v>
       </c>
@@ -3300,7 +3363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:10">
       <c r="A111" s="4">
         <v>40863</v>
       </c>
@@ -3317,7 +3380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:10">
       <c r="A112" s="4">
         <v>40863</v>
       </c>
@@ -3334,7 +3397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:10">
       <c r="A113" s="4">
         <v>40863</v>
       </c>
@@ -3351,7 +3414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:10">
       <c r="A114" s="4">
         <v>40864</v>
       </c>
@@ -3368,7 +3431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:10">
       <c r="A115" s="4">
         <v>40864</v>
       </c>
@@ -3384,11 +3447,11 @@
       <c r="E115" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:10">
       <c r="A116" s="4">
         <v>40865</v>
       </c>
@@ -3405,7 +3468,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:10">
       <c r="A117" s="4">
         <v>40865</v>
       </c>
@@ -3422,7 +3485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:10">
       <c r="A118" s="4">
         <v>40868</v>
       </c>
@@ -3439,7 +3502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:10">
       <c r="A119" s="4">
         <v>40868</v>
       </c>
@@ -3456,7 +3519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:10">
       <c r="A120" s="4">
         <v>40868</v>
       </c>
@@ -3473,7 +3536,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:10">
       <c r="A121" s="4">
         <v>40869</v>
       </c>
@@ -3490,7 +3553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:10">
       <c r="A122" s="4">
         <v>40869</v>
       </c>
@@ -3507,7 +3570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:10">
       <c r="A123" s="4">
         <v>40871</v>
       </c>
@@ -3524,7 +3587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:10">
       <c r="A124" s="4">
         <v>40871</v>
       </c>
@@ -3541,7 +3604,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:10">
       <c r="A125" s="4">
         <v>40871</v>
       </c>
@@ -3558,7 +3621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:10">
       <c r="A126" s="4">
         <v>40876</v>
       </c>
@@ -3575,7 +3638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:10">
       <c r="A127" s="4">
         <v>40876</v>
       </c>
@@ -3592,7 +3655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:10">
       <c r="A128" s="4">
         <v>40877</v>
       </c>
@@ -3609,7 +3672,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:10">
       <c r="A129" s="4">
         <v>40877</v>
       </c>
@@ -3626,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:10">
       <c r="A130" s="4">
         <v>40879</v>
       </c>
@@ -3642,11 +3705,11 @@
       <c r="E130" t="s">
         <v>163</v>
       </c>
-      <c r="H130" t="s">
+      <c r="J130" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:10">
       <c r="A131" s="4">
         <v>40882</v>
       </c>
@@ -3663,7 +3726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:10">
       <c r="A132" s="4">
         <v>40882</v>
       </c>
@@ -3680,7 +3743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:10">
       <c r="A133" s="4">
         <v>40882</v>
       </c>
@@ -3696,11 +3759,11 @@
       <c r="E133" t="s">
         <v>19</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:10">
       <c r="A134" s="4">
         <v>40884</v>
       </c>
@@ -3717,7 +3780,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:10">
       <c r="A135" s="4">
         <v>40884</v>
       </c>
@@ -3734,7 +3797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:10">
       <c r="A136" s="4">
         <v>40885</v>
       </c>
@@ -3751,7 +3814,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:10">
       <c r="A137" s="4">
         <v>40885</v>
       </c>
@@ -3768,7 +3831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:10">
       <c r="A138" s="4">
         <v>40887</v>
       </c>
@@ -3785,7 +3848,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:10">
       <c r="A139" s="4">
         <v>40887</v>
       </c>
@@ -3802,7 +3865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:10">
       <c r="A140" s="4">
         <v>40888</v>
       </c>
@@ -3819,7 +3882,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:10">
       <c r="A141" s="4">
         <v>40914</v>
       </c>
@@ -3836,7 +3899,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:10">
       <c r="A142" s="4">
         <v>40941</v>
       </c>
@@ -3852,8 +3915,94 @@
       <c r="E142" t="s">
         <v>184</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="J142" s="3" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="4">
+        <v>40963</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="4">
+        <v>40966</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="4">
+        <v>40970</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145">
+        <v>156066</v>
+      </c>
+      <c r="G145">
+        <v>156189</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="4">
+        <v>40973</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146">
+        <v>156191</v>
+      </c>
+      <c r="G146">
+        <v>156316</v>
       </c>
     </row>
   </sheetData>
@@ -3865,12 +4014,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40963</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>7.89</v>
+      </c>
+      <c r="E2">
+        <v>12.67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="204">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,10 +418,6 @@
   </si>
   <si>
     <t>06:30-09:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.6Km</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,6 +829,26 @@
   </si>
   <si>
     <t>+油 ￥120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:45-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:40-8:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J139" sqref="J139"/>
+      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1211,9 +1227,8 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1234,16 +1249,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="G1" t="s">
-        <v>198</v>
-      </c>
       <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1262,7 +1277,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1282,7 +1297,7 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1302,7 +1317,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1322,7 +1337,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1342,7 +1357,7 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1362,7 +1377,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1382,7 +1397,7 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
@@ -1405,7 +1420,7 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1428,7 +1443,7 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1448,7 +1463,7 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1471,7 +1486,7 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1491,7 +1506,7 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1511,7 +1526,7 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1531,7 +1546,7 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1551,7 +1566,7 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1571,7 +1586,7 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1591,7 +1606,7 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1611,7 +1626,7 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1651,7 +1666,7 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1671,7 +1686,7 @@
       <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1691,7 +1706,7 @@
       <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1711,7 +1726,7 @@
       <c r="E24" t="s">
         <v>53</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1748,7 +1763,7 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -1771,7 +1786,7 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1791,7 +1806,7 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1811,7 +1826,7 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1831,7 +1846,7 @@
       <c r="E30" t="s">
         <v>19</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1851,7 +1866,7 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1871,7 +1886,7 @@
       <c r="E32" t="s">
         <v>43</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1891,7 +1906,7 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1911,7 +1926,7 @@
       <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1931,7 +1946,7 @@
       <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1951,7 +1966,7 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1971,7 +1986,7 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1991,7 +2006,7 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2011,7 +2026,7 @@
       <c r="E39" t="s">
         <v>5</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2031,7 +2046,7 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -2054,7 +2069,7 @@
       <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2074,7 +2089,7 @@
       <c r="E42" t="s">
         <v>69</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2094,7 +2109,7 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2114,7 +2129,7 @@
       <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2134,7 +2149,7 @@
       <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2154,7 +2169,7 @@
       <c r="E46" t="s">
         <v>5</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2174,7 +2189,7 @@
       <c r="E47" t="s">
         <v>73</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2194,7 +2209,7 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2214,7 +2229,7 @@
       <c r="E49" t="s">
         <v>43</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2271,7 +2286,7 @@
       <c r="E52" t="s">
         <v>79</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2308,7 +2323,7 @@
       <c r="E54" t="s">
         <v>84</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2328,7 +2343,7 @@
       <c r="E55" t="s">
         <v>88</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2348,7 +2363,7 @@
       <c r="E56" t="s">
         <v>89</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2368,7 +2383,7 @@
       <c r="E57" t="s">
         <v>83</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2388,7 +2403,7 @@
       <c r="E58" t="s">
         <v>93</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2408,7 +2423,7 @@
       <c r="E59" t="s">
         <v>94</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2428,7 +2443,7 @@
       <c r="E60" t="s">
         <v>95</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2448,7 +2463,7 @@
       <c r="E61" t="s">
         <v>50</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2468,7 +2483,7 @@
       <c r="E62" t="s">
         <v>83</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2488,9 +2503,6 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="I63" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4">
@@ -2500,7 +2512,7 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -2508,8 +2520,8 @@
       <c r="E64" t="s">
         <v>19</v>
       </c>
-      <c r="H64" t="s">
-        <v>103</v>
+      <c r="I64" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2520,7 +2532,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2528,8 +2540,8 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="H65" t="s">
-        <v>103</v>
+      <c r="I65" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2540,7 +2552,7 @@
         <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -2557,7 +2569,7 @@
         <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
@@ -2574,7 +2586,7 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -2582,8 +2594,8 @@
       <c r="E68" t="s">
         <v>19</v>
       </c>
-      <c r="H68" t="s">
-        <v>103</v>
+      <c r="I68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2594,7 +2606,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -2602,7 +2614,7 @@
       <c r="E69" t="s">
         <v>5</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2614,7 +2626,7 @@
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -2622,7 +2634,7 @@
       <c r="E70" t="s">
         <v>43</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2634,7 +2646,7 @@
         <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
@@ -2642,7 +2654,7 @@
       <c r="E71" t="s">
         <v>5</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2651,18 +2663,18 @@
         <v>40837</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2671,13 +2683,13 @@
         <v>40837</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>47</v>
@@ -2688,10 +2700,10 @@
         <v>40839</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
         <v>47</v>
@@ -2705,10 +2717,10 @@
         <v>40839</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
         <v>93</v>
@@ -2722,16 +2734,16 @@
         <v>40839</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2739,13 +2751,13 @@
         <v>40839</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -2756,16 +2768,16 @@
         <v>40840</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2776,7 +2788,7 @@
         <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -2784,8 +2796,8 @@
       <c r="E79" t="s">
         <v>19</v>
       </c>
-      <c r="H79" t="s">
-        <v>115</v>
+      <c r="I79" t="s">
+        <v>114</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>30</v>
@@ -2799,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -2807,7 +2819,7 @@
       <c r="E80" t="s">
         <v>17</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2819,7 +2831,7 @@
         <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2827,7 +2839,7 @@
       <c r="E81" t="s">
         <v>43</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2839,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
         <v>43</v>
@@ -2847,7 +2859,7 @@
       <c r="E82" t="s">
         <v>5</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2856,10 +2868,10 @@
         <v>40842</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -2867,7 +2879,7 @@
       <c r="E83" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2879,7 +2891,7 @@
         <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -2887,7 +2899,7 @@
       <c r="E84" t="s">
         <v>17</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2899,7 +2911,7 @@
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2907,7 +2919,7 @@
       <c r="E85" t="s">
         <v>43</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2919,7 +2931,7 @@
         <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
         <v>43</v>
@@ -2927,7 +2939,7 @@
       <c r="E86" t="s">
         <v>5</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2936,10 +2948,10 @@
         <v>40843</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -2947,7 +2959,7 @@
       <c r="E87" t="s">
         <v>19</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2956,16 +2968,16 @@
         <v>40844</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" t="s">
         <v>123</v>
       </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>124</v>
-      </c>
-      <c r="E88" t="s">
-        <v>125</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>82</v>
@@ -2976,16 +2988,16 @@
         <v>40844</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2996,7 +3008,7 @@
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3004,7 +3016,7 @@
       <c r="E90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3016,7 +3028,7 @@
         <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -3024,7 +3036,7 @@
       <c r="E91" t="s">
         <v>43</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3036,7 +3048,7 @@
         <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
         <v>43</v>
@@ -3044,7 +3056,7 @@
       <c r="E92" t="s">
         <v>5</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3053,18 +3065,18 @@
         <v>40844</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
         <v>116</v>
       </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>117</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3073,16 +3085,16 @@
         <v>40844</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3090,16 +3102,16 @@
         <v>40844</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3107,13 +3119,13 @@
         <v>40847</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
@@ -3124,16 +3136,16 @@
         <v>40851</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
         <v>127</v>
-      </c>
-      <c r="C97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3141,19 +3153,19 @@
         <v>40851</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
         <v>129</v>
       </c>
-      <c r="C98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" t="s">
-        <v>130</v>
-      </c>
       <c r="J98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3161,13 +3173,13 @@
         <v>40853</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E99" t="s">
         <v>93</v>
@@ -3178,10 +3190,10 @@
         <v>40853</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
         <v>93</v>
@@ -3195,16 +3207,16 @@
         <v>40853</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
         <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3212,16 +3224,16 @@
         <v>40854</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" t="s">
         <v>134</v>
-      </c>
-      <c r="C102" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3229,16 +3241,16 @@
         <v>40856</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
         <v>127</v>
-      </c>
-      <c r="C103" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3246,13 +3258,13 @@
         <v>40856</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -3263,16 +3275,16 @@
         <v>40857</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3280,13 +3292,13 @@
         <v>40857</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
@@ -3300,16 +3312,16 @@
         <v>40858</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
         <v>127</v>
-      </c>
-      <c r="C107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3317,13 +3329,13 @@
         <v>40858</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
         <v>47</v>
@@ -3334,16 +3346,16 @@
         <v>40861</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
         <v>138</v>
       </c>
-      <c r="C109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>139</v>
-      </c>
-      <c r="E109" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3351,16 +3363,16 @@
         <v>40861</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3368,16 +3380,16 @@
         <v>40863</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3385,13 +3397,13 @@
         <v>40863</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" t="s">
         <v>144</v>
-      </c>
-      <c r="C112" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" t="s">
-        <v>145</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
@@ -3402,10 +3414,10 @@
         <v>40863</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -3419,16 +3431,16 @@
         <v>40864</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3439,16 +3451,16 @@
         <v>65</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3456,16 +3468,16 @@
         <v>40865</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3473,13 +3485,13 @@
         <v>40865</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" t="s">
         <v>83</v>
@@ -3490,16 +3502,16 @@
         <v>40868</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
         <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3507,10 +3519,10 @@
         <v>40868</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -3524,16 +3536,16 @@
         <v>40868</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" t="s">
         <v>150</v>
       </c>
-      <c r="C120" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>151</v>
-      </c>
-      <c r="E120" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3541,16 +3553,16 @@
         <v>40869</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3558,16 +3570,16 @@
         <v>40869</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" t="s">
         <v>153</v>
-      </c>
-      <c r="E122" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3575,16 +3587,16 @@
         <v>40871</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3592,16 +3604,16 @@
         <v>40871</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" t="s">
+        <v>127</v>
+      </c>
+      <c r="E124" t="s">
         <v>157</v>
-      </c>
-      <c r="C124" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124" t="s">
-        <v>128</v>
-      </c>
-      <c r="E124" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3609,13 +3621,13 @@
         <v>40871</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -3626,16 +3638,16 @@
         <v>40876</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3643,13 +3655,13 @@
         <v>40876</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -3660,16 +3672,16 @@
         <v>40877</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3677,13 +3689,13 @@
         <v>40877</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -3694,19 +3706,19 @@
         <v>40879</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D130" t="s">
         <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3714,16 +3726,16 @@
         <v>40882</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" t="s">
         <v>163</v>
-      </c>
-      <c r="E131" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3731,16 +3743,16 @@
         <v>40882</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" t="s">
         <v>167</v>
       </c>
-      <c r="C132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>168</v>
-      </c>
-      <c r="E132" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3748,13 +3760,13 @@
         <v>40882</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E133" t="s">
         <v>19</v>
@@ -3768,16 +3780,16 @@
         <v>40884</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D134" t="s">
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3785,13 +3797,13 @@
         <v>40884</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -3802,16 +3814,16 @@
         <v>40885</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3819,13 +3831,13 @@
         <v>40885</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -3836,16 +3848,16 @@
         <v>40887</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D138" t="s">
         <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3853,13 +3865,13 @@
         <v>40887</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E139" t="s">
         <v>47</v>
@@ -3870,16 +3882,16 @@
         <v>40888</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" t="s">
         <v>176</v>
       </c>
-      <c r="C140" t="s">
-        <v>104</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>177</v>
-      </c>
-      <c r="E140" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3887,16 +3899,16 @@
         <v>40914</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" t="s">
         <v>179</v>
       </c>
-      <c r="C141" t="s">
-        <v>104</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>180</v>
-      </c>
-      <c r="E141" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3904,19 +3916,19 @@
         <v>40941</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" t="s">
         <v>182</v>
       </c>
-      <c r="C142" t="s">
-        <v>104</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>183</v>
       </c>
-      <c r="E142" t="s">
+      <c r="J142" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3924,10 +3936,10 @@
         <v>40963</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D143" t="s">
         <v>19</v>
@@ -3944,10 +3956,10 @@
         <v>40966</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D144" t="s">
         <v>47</v>
@@ -3961,10 +3973,10 @@
         <v>40970</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
         <v>19</v>
@@ -3978,8 +3990,12 @@
       <c r="G145">
         <v>156189</v>
       </c>
+      <c r="H145">
+        <f>G145-F145</f>
+        <v>123</v>
+      </c>
       <c r="J145" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -3987,10 +4003,10 @@
         <v>40973</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
         <v>47</v>
@@ -4003,6 +4019,145 @@
       </c>
       <c r="G146">
         <v>156316</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146:H151" si="0">G146-F146</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="4">
+        <v>40976</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>200</v>
+      </c>
+      <c r="F147">
+        <v>156316</v>
+      </c>
+      <c r="G147">
+        <v>156343</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="4">
+        <v>40976</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148">
+        <v>156343</v>
+      </c>
+      <c r="G148">
+        <v>156370</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="4">
+        <v>40977</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>156370</v>
+      </c>
+      <c r="G149">
+        <v>156394</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="4">
+        <v>40977</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150">
+        <v>156394</v>
+      </c>
+      <c r="G150">
+        <v>156511</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="4">
+        <v>40980</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151">
+        <v>156511</v>
+      </c>
+      <c r="G151">
+        <v>156619</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4027,25 +4182,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
         <v>188</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>193</v>
-      </c>
-      <c r="G1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4053,7 +4208,7 @@
         <v>40963</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -4065,7 +4220,7 @@
         <v>12.67</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I151" sqref="I151"/>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="206">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,6 +849,14 @@
   </si>
   <si>
     <t>5:40-8:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章 -200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4021,8 +4029,11 @@
         <v>156316</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H151" si="0">G146-F146</f>
+        <f t="shared" ref="H146:H153" si="0">G146-F146</f>
         <v>125</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -4158,6 +4169,63 @@
       <c r="H151">
         <f t="shared" si="0"/>
         <v>108</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="4">
+        <v>40984</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>47</v>
+      </c>
+      <c r="F152">
+        <v>156714</v>
+      </c>
+      <c r="G152">
+        <v>156829</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="4">
+        <v>40987</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>103</v>
+      </c>
+      <c r="D153" t="s">
+        <v>47</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153">
+        <v>156848</v>
+      </c>
+      <c r="G153">
+        <v>156955</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="208">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,14 @@
   </si>
   <si>
     <t>违章 -200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞大朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,13 +1227,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4029,7 +4037,7 @@
         <v>156316</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H153" si="0">G146-F146</f>
+        <f t="shared" ref="H146:H155" si="0">G146-F146</f>
         <v>125</v>
       </c>
       <c r="J146" t="s">
@@ -4226,6 +4234,63 @@
       </c>
       <c r="J153" s="3" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="4">
+        <v>40991</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154">
+        <v>156955</v>
+      </c>
+      <c r="G154">
+        <v>157070</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="4">
+        <v>40994</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" t="s">
+        <v>47</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155">
+        <v>157070</v>
+      </c>
+      <c r="G155">
+        <v>157180</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4237,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4289,6 +4354,26 @@
       </c>
       <c r="G2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40963</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>8.32</v>
+      </c>
+      <c r="E3">
+        <v>6.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="216">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,6 +865,38 @@
   </si>
   <si>
     <t>+油 ￥20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上lamber开回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:45-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30-9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:10-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大王山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,13 +1259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J160" sqref="J160"/>
+      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3984,7 +4016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:11">
       <c r="A145" s="4">
         <v>40970</v>
       </c>
@@ -4014,7 +4046,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:11">
       <c r="A146" s="4">
         <v>40973</v>
       </c>
@@ -4037,14 +4069,14 @@
         <v>156316</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H155" si="0">G146-F146</f>
+        <f t="shared" ref="H146:H159" si="0">G146-F146</f>
         <v>125</v>
       </c>
       <c r="J146" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:11">
       <c r="A147" s="4">
         <v>40976</v>
       </c>
@@ -4071,7 +4103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:11">
       <c r="A148" s="4">
         <v>40976</v>
       </c>
@@ -4098,7 +4130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:11">
       <c r="A149" s="4">
         <v>40977</v>
       </c>
@@ -4125,7 +4157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:11">
       <c r="A150" s="4">
         <v>40977</v>
       </c>
@@ -4152,7 +4184,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:11">
       <c r="A151" s="4">
         <v>40980</v>
       </c>
@@ -4179,7 +4211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:11">
       <c r="A152" s="4">
         <v>40984</v>
       </c>
@@ -4206,7 +4238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:11">
       <c r="A153" s="4">
         <v>40987</v>
       </c>
@@ -4236,7 +4268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:11">
       <c r="A154" s="4">
         <v>40991</v>
       </c>
@@ -4266,12 +4298,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:11">
       <c r="A155" s="4">
         <v>40994</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>203</v>
+      </c>
+      <c r="C155" t="s">
+        <v>103</v>
       </c>
       <c r="D155" t="s">
         <v>47</v>
@@ -4291,6 +4326,120 @@
       </c>
       <c r="J155" s="3" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4">
+        <v>40998</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>157521</v>
+      </c>
+      <c r="G156">
+        <v>157545</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="4">
+        <v>41000</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157">
+        <v>157573</v>
+      </c>
+      <c r="G157">
+        <v>157683</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="4">
+        <v>41003</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" t="s">
+        <v>215</v>
+      </c>
+      <c r="F158">
+        <v>157683</v>
+      </c>
+      <c r="G158">
+        <v>157724</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="4">
+        <v>41004</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" t="s">
+        <v>103</v>
+      </c>
+      <c r="D159" t="s">
+        <v>47</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>157724</v>
+      </c>
+      <c r="G159">
+        <v>157812</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4302,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4313,7 +4462,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -4336,7 +4485,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>40963</v>
       </c>
@@ -4356,9 +4505,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>40963</v>
+        <v>40992</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -4374,6 +4523,29 @@
       </c>
       <c r="G3" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E4">
+        <v>11.95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="225">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,6 +897,42 @@
   </si>
   <si>
     <t>大王山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯亮里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广园路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20-9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30-8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,12 +960,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -946,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +1005,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,13 +1304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
+      <selection pane="bottomRight" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4069,7 +4114,7 @@
         <v>156316</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H159" si="0">G146-F146</f>
+        <f t="shared" ref="H146:H163" si="0">G146-F146</f>
         <v>125</v>
       </c>
       <c r="J146" t="s">
@@ -4440,6 +4485,120 @@
       <c r="H159">
         <f t="shared" si="0"/>
         <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="4">
+        <v>41004</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>157812</v>
+      </c>
+      <c r="G160">
+        <v>157836</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="4">
+        <v>41005</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>157836</v>
+      </c>
+      <c r="G161" s="6">
+        <v>157863</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="4">
+        <v>41005</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162">
+        <v>157863</v>
+      </c>
+      <c r="G162">
+        <v>157947</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="4">
+        <v>41008</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>157947</v>
+      </c>
+      <c r="G163">
+        <v>158057</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4451,18 +4610,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -4484,8 +4644,11 @@
       <c r="G1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>40963</v>
       </c>
@@ -4505,9 +4668,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>40992</v>
+        <v>40991</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -4525,26 +4688,130 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>40999</v>
+        <v>40994</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>8.3699999999999992</v>
       </c>
       <c r="E4">
+        <v>2.39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E5">
         <v>11.95</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>209</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E6">
+        <v>5.97</v>
+      </c>
+      <c r="F6">
+        <v>157820</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6">
+        <v>157813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E7">
+        <v>5.97</v>
+      </c>
+      <c r="F7">
+        <v>157918</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7">
+        <v>157904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>41008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E8">
+        <v>1.67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
         <v>210</v>
       </c>
     </row>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="226">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,6 +933,10 @@
   </si>
   <si>
     <t>+油 ￥10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,13 +1308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J163" sqref="J163"/>
+      <selection pane="bottomRight" activeCell="G152" sqref="F152:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4114,7 +4118,7 @@
         <v>156316</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H163" si="0">G146-F146</f>
+        <f t="shared" ref="H146:H164" si="0">G146-F146</f>
         <v>125</v>
       </c>
       <c r="J146" t="s">
@@ -4599,6 +4603,36 @@
       </c>
       <c r="J163" s="3" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="4">
+        <v>41035</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164">
+        <v>158057</v>
+      </c>
+      <c r="G164">
+        <v>158168</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="225" windowWidth="18180" windowHeight="9900"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="230">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +937,22 @@
   </si>
   <si>
     <t>20:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞樟木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+油 ￥60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,13 +1324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G152" sqref="F152:G152"/>
+      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4607,7 +4623,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="4">
-        <v>41035</v>
+        <v>41033</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>225</v>
@@ -4633,6 +4649,66 @@
       </c>
       <c r="J164" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="4">
+        <v>41030</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" t="s">
+        <v>47</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="4">
+        <v>41040</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C166" t="s">
+        <v>103</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="4">
+        <v>41042</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C167" t="s">
+        <v>103</v>
+      </c>
+      <c r="D167" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4644,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4846,6 +4922,52 @@
         <v>218</v>
       </c>
       <c r="H8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>41033</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E9">
+        <v>11.95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E10">
+        <v>7.17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" t="s">
         <v>210</v>
       </c>
     </row>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="240">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,46 @@
   </si>
   <si>
     <t>+油 ￥60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:40-09:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上接rany的车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑村车管所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办年审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-9:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,13 +1364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
+      <selection pane="bottomRight" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4537,7 +4577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11">
       <c r="A161" s="4">
         <v>41005</v>
       </c>
@@ -4564,7 +4604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" s="4">
         <v>41005</v>
       </c>
@@ -4591,7 +4631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" s="4">
         <v>41008</v>
       </c>
@@ -4621,7 +4661,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="4">
         <v>41033</v>
       </c>
@@ -4651,7 +4691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" s="4">
         <v>41030</v>
       </c>
@@ -4671,7 +4711,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" s="4">
         <v>41040</v>
       </c>
@@ -4691,7 +4731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11">
       <c r="A167" s="4">
         <v>41042</v>
       </c>
@@ -4709,6 +4749,131 @@
       </c>
       <c r="J167" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="4">
+        <v>41047</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="4">
+        <v>41050</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="4">
+        <v>41054</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" t="s">
+        <v>231</v>
+      </c>
+      <c r="E170" t="s">
+        <v>232</v>
+      </c>
+      <c r="K170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="4">
+        <v>41054</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C171" t="s">
+        <v>103</v>
+      </c>
+      <c r="D171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="4">
+        <v>41057</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" t="s">
+        <v>103</v>
+      </c>
+      <c r="D172" t="s">
+        <v>233</v>
+      </c>
+      <c r="E172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="4">
+        <v>41057</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" t="s">
+        <v>231</v>
+      </c>
+      <c r="E173" t="s">
+        <v>237</v>
+      </c>
+      <c r="K173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="4">
+        <v>41058</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C174" t="s">
+        <v>103</v>
+      </c>
+      <c r="D174" t="s">
+        <v>231</v>
+      </c>
+      <c r="E174" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/history/drive.xlsx
+++ b/history/drive.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="225" windowWidth="18180" windowHeight="9900"/>
